--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.352296703611961</v>
+        <v>1.067323333333333</v>
       </c>
       <c r="H2">
-        <v>0.352296703611961</v>
+        <v>3.20197</v>
       </c>
       <c r="I2">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179458</v>
       </c>
       <c r="J2">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N2">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P2">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q2">
-        <v>8.261747935302695</v>
+        <v>26.09370240782444</v>
       </c>
       <c r="R2">
-        <v>8.261747935302695</v>
+        <v>234.84332167042</v>
       </c>
       <c r="S2">
-        <v>0.0001524932455065033</v>
+        <v>0.0004276794948850461</v>
       </c>
       <c r="T2">
-        <v>0.0001524932455065033</v>
+        <v>0.0004276794948850461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.352296703611961</v>
+        <v>1.067323333333333</v>
       </c>
       <c r="H3">
-        <v>0.352296703611961</v>
+        <v>3.20197</v>
       </c>
       <c r="I3">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179458</v>
       </c>
       <c r="J3">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N3">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P3">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q3">
-        <v>6.368591928501741</v>
+        <v>19.33001787635444</v>
       </c>
       <c r="R3">
-        <v>6.368591928501741</v>
+        <v>173.97016088719</v>
       </c>
       <c r="S3">
-        <v>0.0001175498526569571</v>
+        <v>0.0003168217431267718</v>
       </c>
       <c r="T3">
-        <v>0.0001175498526569571</v>
+        <v>0.0003168217431267717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.352296703611961</v>
+        <v>1.067323333333333</v>
       </c>
       <c r="H4">
-        <v>0.352296703611961</v>
+        <v>3.20197</v>
       </c>
       <c r="I4">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179458</v>
       </c>
       <c r="J4">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N4">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P4">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q4">
-        <v>23.97002505292284</v>
+        <v>86.11685186922999</v>
       </c>
       <c r="R4">
-        <v>23.97002505292284</v>
+        <v>775.0516668230699</v>
       </c>
       <c r="S4">
-        <v>0.0004424326357832021</v>
+        <v>0.00141146745421143</v>
       </c>
       <c r="T4">
-        <v>0.0004424326357832021</v>
+        <v>0.00141146745421143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.352296703611961</v>
+        <v>1.067323333333333</v>
       </c>
       <c r="H5">
-        <v>0.352296703611961</v>
+        <v>3.20197</v>
       </c>
       <c r="I5">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179458</v>
       </c>
       <c r="J5">
-        <v>0.0007515719431573877</v>
+        <v>0.002262082342179457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N5">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O5">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P5">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q5">
-        <v>2.118146444139361</v>
+        <v>6.474236049379999</v>
       </c>
       <c r="R5">
-        <v>2.118146444139361</v>
+        <v>58.26812444442</v>
       </c>
       <c r="S5">
-        <v>3.909620921072513E-05</v>
+        <v>0.0001061136499562099</v>
       </c>
       <c r="T5">
-        <v>3.909620921072513E-05</v>
+        <v>0.0001061136499562099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>415.964015344329</v>
+        <v>416.538737</v>
       </c>
       <c r="H6">
-        <v>415.964015344329</v>
+        <v>1249.616211</v>
       </c>
       <c r="I6">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847306</v>
       </c>
       <c r="J6">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847305</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N6">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P6">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q6">
-        <v>9754.81691908329</v>
+        <v>10183.45379058116</v>
       </c>
       <c r="R6">
-        <v>9754.81691908329</v>
+        <v>91651.08411523043</v>
       </c>
       <c r="S6">
-        <v>0.1800519336781557</v>
+        <v>0.1669082564548216</v>
       </c>
       <c r="T6">
-        <v>0.1800519336781557</v>
+        <v>0.1669082564548216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>415.964015344329</v>
+        <v>416.538737</v>
       </c>
       <c r="H7">
-        <v>415.964015344329</v>
+        <v>1249.616211</v>
       </c>
       <c r="I7">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847306</v>
       </c>
       <c r="J7">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847305</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N7">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P7">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q7">
-        <v>7519.52840747252</v>
+        <v>7543.825737659101</v>
       </c>
       <c r="R7">
-        <v>7519.52840747252</v>
+        <v>67894.4316389319</v>
       </c>
       <c r="S7">
-        <v>0.1387935459316118</v>
+        <v>0.1236443771204889</v>
       </c>
       <c r="T7">
-        <v>0.1387935459316118</v>
+        <v>0.1236443771204889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>415.964015344329</v>
+        <v>416.538737</v>
       </c>
       <c r="H8">
-        <v>415.964015344329</v>
+        <v>1249.616211</v>
       </c>
       <c r="I8">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847306</v>
       </c>
       <c r="J8">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847305</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N8">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P8">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q8">
-        <v>28301.90508935386</v>
+        <v>33608.37676058035</v>
       </c>
       <c r="R8">
-        <v>28301.90508935386</v>
+        <v>302475.3908452232</v>
       </c>
       <c r="S8">
-        <v>0.5223893775130614</v>
+        <v>0.5508460766595262</v>
       </c>
       <c r="T8">
-        <v>0.5223893775130614</v>
+        <v>0.5508460766595262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>415.964015344329</v>
+        <v>416.538737</v>
       </c>
       <c r="H9">
-        <v>415.964015344329</v>
+        <v>1249.616211</v>
       </c>
       <c r="I9">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847306</v>
       </c>
       <c r="J9">
-        <v>0.887396561167462</v>
+        <v>0.8828111335847305</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.01239359444136</v>
+        <v>6.065862</v>
       </c>
       <c r="N9">
-        <v>6.01239359444136</v>
+        <v>18.197586</v>
       </c>
       <c r="O9">
-        <v>0.05201925054104627</v>
+        <v>0.0469097202951384</v>
       </c>
       <c r="P9">
-        <v>0.05201925054104627</v>
+        <v>0.04690972029513841</v>
       </c>
       <c r="Q9">
-        <v>2500.939381374351</v>
+        <v>2526.666496296294</v>
       </c>
       <c r="R9">
-        <v>2500.939381374351</v>
+        <v>22739.99846666665</v>
       </c>
       <c r="S9">
-        <v>0.04616170404463309</v>
+        <v>0.04141242334989378</v>
       </c>
       <c r="T9">
-        <v>0.04616170404463309</v>
+        <v>0.04141242334989378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>52.4301690034227</v>
+        <v>0.1415573333333333</v>
       </c>
       <c r="H10">
-        <v>52.4301690034227</v>
+        <v>0.424672</v>
       </c>
       <c r="I10">
-        <v>0.1118518668893806</v>
+        <v>0.0003000162501266517</v>
       </c>
       <c r="J10">
-        <v>0.1118518668893806</v>
+        <v>0.0003000162501266516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.451107690189</v>
+        <v>24.44779533333333</v>
       </c>
       <c r="N10">
-        <v>23.451107690189</v>
+        <v>73.343386</v>
       </c>
       <c r="O10">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="P10">
-        <v>0.2028990662768388</v>
+        <v>0.1890645123346783</v>
       </c>
       <c r="Q10">
-        <v>1229.545539514075</v>
+        <v>3.460764713265778</v>
       </c>
       <c r="R10">
-        <v>1229.545539514075</v>
+        <v>31.146882419392</v>
       </c>
       <c r="S10">
-        <v>0.02269463935317658</v>
+        <v>5.672242602267426E-05</v>
       </c>
       <c r="T10">
-        <v>0.02269463935317658</v>
+        <v>5.672242602267426E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>52.4301690034227</v>
+        <v>0.1415573333333333</v>
       </c>
       <c r="H11">
-        <v>52.4301690034227</v>
+        <v>0.424672</v>
       </c>
       <c r="I11">
-        <v>0.1118518668893806</v>
+        <v>0.0003000162501266517</v>
       </c>
       <c r="J11">
-        <v>0.1118518668893806</v>
+        <v>0.0003000162501266516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0773531605804</v>
+        <v>18.11074233333333</v>
       </c>
       <c r="N11">
-        <v>18.0773531605804</v>
+        <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="P11">
-        <v>0.156405323172556</v>
+        <v>0.1400575643155068</v>
       </c>
       <c r="Q11">
-        <v>947.7986813437878</v>
+        <v>2.563708389393778</v>
       </c>
       <c r="R11">
-        <v>947.7986813437878</v>
+        <v>23.073375504544</v>
       </c>
       <c r="S11">
-        <v>0.01749422738828729</v>
+        <v>4.20195452478107E-05</v>
       </c>
       <c r="T11">
-        <v>0.01749422738828729</v>
+        <v>4.201954524781069E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>52.4301690034227</v>
+        <v>0.1415573333333333</v>
       </c>
       <c r="H12">
-        <v>52.4301690034227</v>
+        <v>0.424672</v>
       </c>
       <c r="I12">
-        <v>0.1118518668893806</v>
+        <v>0.0003000162501266517</v>
       </c>
       <c r="J12">
-        <v>0.1118518668893806</v>
+        <v>0.0003000162501266516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.03931120322019</v>
+        <v>80.684877</v>
       </c>
       <c r="N12">
-        <v>68.03931120322019</v>
+        <v>242.054631</v>
       </c>
       <c r="O12">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546764</v>
       </c>
       <c r="P12">
-        <v>0.5886763600095588</v>
+        <v>0.6239682030546765</v>
       </c>
       <c r="Q12">
-        <v>3567.312585261306</v>
+        <v>11.421536028448</v>
       </c>
       <c r="R12">
-        <v>3567.312585261306</v>
+        <v>102.793824256032</v>
       </c>
       <c r="S12">
-        <v>0.06584454986071427</v>
+        <v>0.0001872006004787292</v>
       </c>
       <c r="T12">
-        <v>0.06584454986071427</v>
+        <v>0.0001872006004787292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1415573333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.424672</v>
+      </c>
+      <c r="I13">
+        <v>0.0003000162501266517</v>
+      </c>
+      <c r="J13">
+        <v>0.0003000162501266516</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.065862</v>
+      </c>
+      <c r="N13">
+        <v>18.197586</v>
+      </c>
+      <c r="O13">
+        <v>0.0469097202951384</v>
+      </c>
+      <c r="P13">
+        <v>0.04690972029513841</v>
+      </c>
+      <c r="Q13">
+        <v>0.8586672490880001</v>
+      </c>
+      <c r="R13">
+        <v>7.728005241792</v>
+      </c>
+      <c r="S13">
+        <v>1.407367837743751E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.407367837743751E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>54.08460233333333</v>
+      </c>
+      <c r="H14">
+        <v>162.253807</v>
+      </c>
+      <c r="I14">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="J14">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.44779533333333</v>
+      </c>
+      <c r="N14">
+        <v>73.343386</v>
+      </c>
+      <c r="O14">
+        <v>0.1890645123346783</v>
+      </c>
+      <c r="P14">
+        <v>0.1890645123346783</v>
+      </c>
+      <c r="Q14">
+        <v>1322.249288530056</v>
+      </c>
+      <c r="R14">
+        <v>11900.2435967705</v>
+      </c>
+      <c r="S14">
+        <v>0.02167185395894895</v>
+      </c>
+      <c r="T14">
+        <v>0.02167185395894895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>54.08460233333333</v>
+      </c>
+      <c r="H15">
+        <v>162.253807</v>
+      </c>
+      <c r="I15">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="J15">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.11074233333333</v>
+      </c>
+      <c r="N15">
+        <v>54.332227</v>
+      </c>
+      <c r="O15">
+        <v>0.1400575643155068</v>
+      </c>
+      <c r="P15">
+        <v>0.1400575643155068</v>
+      </c>
+      <c r="Q15">
+        <v>979.5122970597988</v>
+      </c>
+      <c r="R15">
+        <v>8815.610673538189</v>
+      </c>
+      <c r="S15">
+        <v>0.01605434590664335</v>
+      </c>
+      <c r="T15">
+        <v>0.01605434590664334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>52.4301690034227</v>
-      </c>
-      <c r="H13">
-        <v>52.4301690034227</v>
-      </c>
-      <c r="I13">
-        <v>0.1118518668893806</v>
-      </c>
-      <c r="J13">
-        <v>0.1118518668893806</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.01239359444136</v>
-      </c>
-      <c r="N13">
-        <v>6.01239359444136</v>
-      </c>
-      <c r="O13">
-        <v>0.05201925054104627</v>
-      </c>
-      <c r="P13">
-        <v>0.05201925054104627</v>
-      </c>
-      <c r="Q13">
-        <v>315.2308122716565</v>
-      </c>
-      <c r="R13">
-        <v>315.2308122716565</v>
-      </c>
-      <c r="S13">
-        <v>0.005818450287202447</v>
-      </c>
-      <c r="T13">
-        <v>0.005818450287202447</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>54.08460233333333</v>
+      </c>
+      <c r="H16">
+        <v>162.253807</v>
+      </c>
+      <c r="I16">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="J16">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>80.684877</v>
+      </c>
+      <c r="N16">
+        <v>242.054631</v>
+      </c>
+      <c r="O16">
+        <v>0.6239682030546764</v>
+      </c>
+      <c r="P16">
+        <v>0.6239682030546765</v>
+      </c>
+      <c r="Q16">
+        <v>4363.809486858912</v>
+      </c>
+      <c r="R16">
+        <v>39274.28538173022</v>
+      </c>
+      <c r="S16">
+        <v>0.07152345834045999</v>
+      </c>
+      <c r="T16">
+        <v>0.07152345834045999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>54.08460233333333</v>
+      </c>
+      <c r="H17">
+        <v>162.253807</v>
+      </c>
+      <c r="I17">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="J17">
+        <v>0.1146267678229633</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.065862</v>
+      </c>
+      <c r="N17">
+        <v>18.197586</v>
+      </c>
+      <c r="O17">
+        <v>0.0469097202951384</v>
+      </c>
+      <c r="P17">
+        <v>0.04690972029513841</v>
+      </c>
+      <c r="Q17">
+        <v>328.069734078878</v>
+      </c>
+      <c r="R17">
+        <v>2952.627606709902</v>
+      </c>
+      <c r="S17">
+        <v>0.005377109616910978</v>
+      </c>
+      <c r="T17">
+        <v>0.005377109616910978</v>
       </c>
     </row>
   </sheetData>
